--- a/db/db-challenge2/chatworkデータベース定義書.xlsx
+++ b/db/db-challenge2/chatworkデータベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23107"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="277" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4D55229-391E-49F2-9A64-3F731CD199DD}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F42CB8D-5F13-4CE0-B96D-0AC4539AFCB8}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="116">
   <si>
     <t>改定履歴</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>task</t>
+  </si>
+  <si>
+    <t>各テーブル</t>
+  </si>
+  <si>
+    <t>作成日時、更新日時のデフォルト値にcurrent_timestampを追加、更新日時の備考欄の追加</t>
+  </si>
+  <si>
+    <t>電話番号のデータ型をint(13)→varchar(13)に変更</t>
+  </si>
+  <si>
+    <t>task_user_id→user_idへ変更</t>
   </si>
   <si>
     <t>table_names</t>
@@ -652,6 +664,12 @@
     <t>my_phone_number</t>
   </si>
   <si>
+    <t>current_timestamp</t>
+  </si>
+  <si>
+    <t>更新毎に現在時刻へとアップデートする</t>
+  </si>
+  <si>
     <t>rooms_join_users</t>
   </si>
   <si>
@@ -682,7 +700,7 @@
     <t>chat_rooms.idの外部キー</t>
   </si>
   <si>
-    <t>チャット日時</t>
+    <t>チャット参加日時</t>
   </si>
   <si>
     <t>user_joined_at</t>
@@ -706,7 +724,7 @@
     <t>ファイル送信制御フラグ</t>
   </si>
   <si>
-    <t>is_sent_file</t>
+    <t>can_sent_file</t>
   </si>
   <si>
     <t>1:ファイル送信不可</t>
@@ -761,9 +779,6 @@
   </si>
   <si>
     <t>タスク担当者ID</t>
-  </si>
-  <si>
-    <t>task_user_id</t>
   </si>
   <si>
     <t>タスク期限</t>
@@ -1202,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1493,10 +1508,18 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="8">
+        <v>44026</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1521,10 +1544,18 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8">
+        <v>44026</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1549,10 +1580,18 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="8">
+        <v>44026</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -30123,7 +30162,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="C6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -30141,7 +30180,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -30157,10 +30196,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -30176,10 +30215,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -30196,34 +30235,34 @@
     <row r="4" spans="1:13">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
@@ -30235,26 +30274,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="26"/>
@@ -30267,20 +30306,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30295,13 +30334,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30321,13 +30360,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30336,12 +30375,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -30353,18 +30392,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -30379,20 +30418,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -30407,18 +30446,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -30433,20 +30472,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -30504,7 +30543,7 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -30519,7 +30558,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -30535,34 +30574,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30776,9 +30815,9 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30789,9 +30828,11 @@
     <col min="4" max="4" width="22" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="22" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="23"/>
+    <col min="9" max="10" width="14.42578125" style="23"/>
+    <col min="11" max="11" width="50.140625" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
@@ -30799,7 +30840,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -30813,10 +30854,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -30830,7 +30871,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
@@ -30846,34 +30887,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30883,26 +30924,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -30913,20 +30954,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30939,20 +30980,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -30965,13 +31006,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" s="16">
         <v>1000</v>
@@ -30981,7 +31022,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -30991,13 +31032,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F9" s="16">
         <v>13</v>
@@ -31015,13 +31056,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -31039,13 +31080,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
@@ -31054,12 +31095,12 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -31069,18 +31110,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="H12" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -31093,22 +31136,26 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
       <c r="A14" s="26"/>
@@ -31147,14 +31194,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="23"/>
     <col min="2" max="2" width="3.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
@@ -31170,7 +31217,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -31184,10 +31231,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -31201,10 +31248,10 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -31219,34 +31266,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31256,27 +31303,27 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -31286,27 +31333,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -31316,18 +31363,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31370,7 +31417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31381,7 +31428,7 @@
     <col min="4" max="4" width="22" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
     <col min="9" max="10" width="14.42578125" style="23"/>
     <col min="11" max="11" width="51.5703125" style="23" customWidth="1"/>
@@ -31393,7 +31440,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -31407,10 +31454,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -31424,7 +31471,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
@@ -31440,34 +31487,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31477,26 +31524,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31507,20 +31554,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31533,13 +31580,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -31556,13 +31603,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -31571,12 +31618,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -31585,13 +31632,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31600,12 +31647,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31615,13 +31662,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31630,12 +31677,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -31645,27 +31692,27 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -31675,18 +31722,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="H12" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -31699,27 +31748,27 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" s="16">
         <v>11</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -31729,22 +31778,26 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="H14" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
       <c r="A15" s="26"/>
@@ -31783,7 +31836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31794,7 +31847,7 @@
     <col min="4" max="4" width="22" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="23"/>
     <col min="10" max="10" width="14" style="23" bestFit="1" customWidth="1"/>
@@ -31807,7 +31860,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -31821,10 +31874,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -31838,7 +31891,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
@@ -31854,34 +31907,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31891,26 +31944,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31921,27 +31974,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -31951,20 +32004,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31976,13 +32029,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -32000,13 +32053,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -32015,12 +32068,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -32030,27 +32083,27 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -32060,18 +32113,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="H11" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -32084,27 +32139,27 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -32114,22 +32169,26 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
       <c r="A14" s="26"/>
@@ -32168,7 +32227,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32179,7 +32238,7 @@
     <col min="4" max="4" width="22" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="23"/>
     <col min="10" max="10" width="14" style="23" bestFit="1" customWidth="1"/>
@@ -32192,7 +32251,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -32206,10 +32265,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -32223,7 +32282,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
@@ -32239,34 +32298,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -32276,26 +32335,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32306,27 +32365,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -32335,27 +32394,27 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -32365,13 +32424,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="20"/>
@@ -32386,13 +32445,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -32401,12 +32460,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="21" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -32416,13 +32475,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -32431,12 +32490,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -32446,27 +32505,27 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -32476,18 +32535,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="H12" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -32500,27 +32561,27 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" s="16">
         <v>11</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -32530,22 +32591,26 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="H14" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
       <c r="A15" s="26"/>

--- a/db/db-challenge2/chatworkデータベース定義書.xlsx
+++ b/db/db-challenge2/chatworkデータベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23107"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="320" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F42CB8D-5F13-4CE0-B96D-0AC4539AFCB8}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37A8AC05-43D8-4FF2-B85C-7F21BADE7987}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="119">
   <si>
     <t>改定履歴</t>
   </si>
@@ -55,7 +55,7 @@
     <t>alcoder</t>
   </si>
   <si>
-    <t>user</t>
+    <t>users</t>
   </si>
   <si>
     <t>テーブル作成</t>
@@ -64,16 +64,16 @@
     <t>4-YutaKatada</t>
   </si>
   <si>
-    <t>chat_join_user</t>
+    <t>rooms_join_users</t>
   </si>
   <si>
-    <t>chat_room</t>
+    <t>chat_rooms</t>
   </si>
   <si>
-    <t>chat_post</t>
+    <t>chat_posts</t>
   </si>
   <si>
-    <t>task</t>
+    <t>tasks</t>
   </si>
   <si>
     <t>各テーブル</t>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>task_user_id→user_idへ変更</t>
+  </si>
+  <si>
+    <t>カラム`password`を追加</t>
+  </si>
+  <si>
+    <t>デフォルト値にCURRENT_TIMESTAMPを追加</t>
+  </si>
+  <si>
+    <t>作成日時にNOT NULLを追加</t>
+  </si>
+  <si>
+    <t>カラム`content`を追加</t>
   </si>
   <si>
     <t>table_names</t>
@@ -625,9 +637,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>ユーザーIDとその情報管理のテーブル</t>
   </si>
   <si>
@@ -638,6 +647,15 @@
   </si>
   <si>
     <t>user_name</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>varchar</t>
   </si>
   <si>
     <t>メールアドレス</t>
@@ -668,9 +686,6 @@
   </si>
   <si>
     <t>更新毎に現在時刻へとアップデートする</t>
-  </si>
-  <si>
-    <t>rooms_join_users</t>
   </si>
   <si>
     <t>チャットIDとそこに参加しているユーザーIDの一覧</t>
@@ -709,9 +724,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>chat_rooms</t>
-  </si>
-  <si>
     <t>チャットルームに関する情報管理</t>
   </si>
   <si>
@@ -742,9 +754,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>chat_posts</t>
-  </si>
-  <si>
     <t>チャット投稿に関する情報</t>
   </si>
   <si>
@@ -766,12 +775,6 @@
     <t>file_name</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
     <t>タスクに関する情報</t>
   </si>
   <si>
@@ -779,6 +782,12 @@
   </si>
   <si>
     <t>タスク担当者ID</t>
+  </si>
+  <si>
+    <t>タスク内容</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
   <si>
     <t>タスク期限</t>
@@ -1217,8 +1226,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1616,10 +1625,18 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="12.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="8">
+        <v>44027</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1644,10 +1661,18 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="8">
+        <v>44027</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1672,10 +1697,18 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="12.75">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="8">
+        <v>44027</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1700,10 +1733,18 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="12.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="8">
+        <v>44027</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -30180,7 +30221,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -30196,10 +30237,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -30215,10 +30256,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -30235,34 +30276,34 @@
     <row r="4" spans="1:13">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
@@ -30274,26 +30315,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="26"/>
@@ -30306,20 +30347,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30334,13 +30375,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30360,13 +30401,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30375,12 +30416,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -30392,18 +30433,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -30418,20 +30459,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -30446,18 +30487,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -30472,20 +30513,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -30543,7 +30584,7 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -30558,7 +30599,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -30574,34 +30615,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30813,11 +30854,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30840,7 +30881,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -30854,10 +30895,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -30871,7 +30912,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
@@ -30887,63 +30928,63 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="26"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -30954,46 +30995,45 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:11" s="26" customFormat="1" ht="12.75">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31006,24 +31046,24 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F8" s="16">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
       <c r="A9" s="26"/>
@@ -31032,22 +31072,24 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" s="16">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="21" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
       <c r="A10" s="26"/>
@@ -31056,22 +31098,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="26"/>
@@ -31080,28 +31122,22 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
       <c r="A12" s="26"/>
@@ -31118,16 +31154,20 @@
       <c r="E12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>35</v>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="21" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
       <c r="A13" s="26"/>
@@ -31136,26 +31176,24 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
       <c r="A14" s="26"/>
@@ -31163,15 +31201,43 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="26"/>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31194,7 +31260,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31205,7 +31271,7 @@
     <col min="4" max="4" width="30.140625" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="23" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
     <col min="9" max="10" width="14.42578125" style="23"/>
     <col min="11" max="11" width="35.28515625" style="23" customWidth="1"/>
@@ -31217,7 +31283,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -31231,10 +31297,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -31248,10 +31314,10 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -31266,34 +31332,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31303,27 +31369,27 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -31333,27 +31399,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -31363,18 +31429,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="H7" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31440,7 +31508,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -31454,10 +31522,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -31471,7 +31539,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
@@ -31487,34 +31555,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31524,26 +31592,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31554,20 +31622,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31580,13 +31648,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -31603,13 +31671,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -31618,12 +31686,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -31632,13 +31700,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31647,12 +31715,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31662,13 +31730,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31677,12 +31745,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -31692,27 +31760,27 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -31722,20 +31790,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -31748,27 +31816,27 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="16">
         <v>11</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -31778,25 +31846,25 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -31860,7 +31928,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -31874,10 +31942,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -31891,7 +31959,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
@@ -31907,34 +31975,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31944,26 +32012,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31974,27 +32042,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -32004,20 +32072,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -32029,13 +32097,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -32053,13 +32121,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -32068,12 +32136,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -32083,27 +32151,27 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -32113,20 +32181,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -32139,27 +32207,27 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -32169,25 +32237,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -32223,11 +32291,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32251,7 +32319,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -32265,10 +32333,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -32282,7 +32350,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
@@ -32298,63 +32366,63 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="26"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32365,27 +32433,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -32394,47 +32462,50 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="26"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="26" customFormat="1" ht="12.75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1000</v>
+      </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -32442,46 +32513,38 @@
     <row r="9" spans="1:11" ht="12.75">
       <c r="A9" s="26"/>
       <c r="B9" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>35</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="21" t="s">
-        <v>115</v>
-      </c>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
       <c r="A10" s="26"/>
       <c r="B10" s="5">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -32490,12 +32553,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -32505,27 +32568,27 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="16">
-        <v>11</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -32535,54 +32598,53 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="20" t="s">
-        <v>72</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F12" s="16">
+        <v>11</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
       <c r="A13" s="26"/>
       <c r="B13" s="5">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="16">
-        <v>11</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>97</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
       <c r="A14" s="26"/>
@@ -32591,25 +32653,27 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="F14" s="16">
+        <v>11</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="15" t="s">
-        <v>73</v>
+      <c r="K14" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -32618,15 +32682,40 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="26"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
